--- a/Companies/Diversified/ITC Ltd/Pruned_Excel/6_Dec19_Dec20.xlsx
+++ b/Companies/Diversified/ITC Ltd/Pruned_Excel/6_Dec19_Dec20.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Dec '19</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '20</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '20</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '20</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Dec '20</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '20</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '20</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '20</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '19</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>11,704.79</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10,722.29</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8,845.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>11,098.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>11,698.60</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>11,098.24</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8,845.18</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10,722.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>11,704.79</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>11704.79</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>8845.18</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>10813.82</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>100.85</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>119.99</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>88.77</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>84.84</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>66.14</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>119.99</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>100.85</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>119.99</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>66.14</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>92.11799999999999</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>11,805.64</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10,842.28</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8,911.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>11,183.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>11,787.37</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>11,183.08</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8,911.32</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>10,842.28</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>11,805.64</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>11805.64</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>8911.32</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>10905.938</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>3,360.82</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3,254.23</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3,048.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3,467.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>3,312.46</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3,467.25</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3,048.44</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3,254.23</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3,360.82</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>3467.25</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>3048.44</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>3288.64</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>743.90</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>987.26</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1,676.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1,149.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>1,602.97</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1,149.93</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1,676.61</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>987.26</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>743.90</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1676.61</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>743.9</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>1232.134</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>441.77</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-174.43</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-778.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>119.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>97.62</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>119.77</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-778.13</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-174.43</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>441.77</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>441.77</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-778.13</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>-58.68000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>669.11</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>666.53</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>696.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>661.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>720.08</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>661.03</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>696.92</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>666.53</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>669.11</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>720.08</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>661.03</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>682.734</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>416.21</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>392.50</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>398.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>382.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>390.92</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>382.50</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>398.18</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>392.50</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>416.21</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>416.21</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>382.5</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>396.062</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>1,977.37</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1,945.16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,620.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1,724.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>1,772.89</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1,724.47</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1,620.90</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1,945.16</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1,977.37</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>1977.37</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>1620.9</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>1808.158</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>4,196.46</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3,771.03</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2,248.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3,678.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>3,890.43</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>3,678.13</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2,248.40</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3,771.03</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4,196.46</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>4196.46</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>2248.4</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>3556.89</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>983.62</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>755.54</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>896.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>609.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>970.99</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>609.95</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>896.82</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>755.54</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>983.62</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>983.62</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>609.95</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>843.384</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>5,180.08</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4,526.57</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3,145.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4,288.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>4,861.42</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>4,288.08</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3,145.22</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4,526.57</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5,180.08</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>5180.08</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>3145.22</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>4400.273999999999</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>14.73</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>13.78</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>13.76</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>16.79</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>14.73</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>12.44</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>16.79</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>14.3</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>5,167.64</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4,511.84</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3,128.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4,274.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>4,847.64</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4,274.32</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3,128.43</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4,511.84</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5,167.64</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>5167.64</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>3128.43</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>4385.974</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>-132.11</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-132.11</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>-132.11</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>-132.11</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>-132.11</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>5,035.53</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4,511.84</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3,128.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4,274.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>4,847.64</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>4,274.32</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3,128.43</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>4,511.84</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5,035.53</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>5035.53</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>3128.43</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>4359.552</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>893.60</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>714.76</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>785.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1,041.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>1,184.79</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1,041.92</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>785.67</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>714.76</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>893.60</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>1184.79</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>714.76</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>924.1479999999999</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>4,141.93</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3,797.08</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2,342.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3,232.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>3,662.85</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>3,232.40</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2,342.76</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3,797.08</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4,141.93</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>4141.93</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>2342.76</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>3435.404</v>
       </c>
     </row>
     <row r="22">
@@ -1250,37 +1065,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>4,141.93</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>3,797.08</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2,342.76</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3,232.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>3,662.85</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>3,232.40</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2,342.76</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>3,797.08</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4,141.93</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>4141.93</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>2342.76</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>3435.404</v>
       </c>
     </row>
     <row r="23">
@@ -1291,37 +1097,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>1,229.11</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1,229.22</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1,229.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1,230.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>1,230.51</t>
         </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1,230.50</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1,229.22</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1,229.22</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1,229.11</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>1230.51</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>1229.11</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>1229.712</v>
       </c>
     </row>
     <row r="24"/>
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>2.98</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>2.794</v>
       </c>
     </row>
     <row r="27">
@@ -1381,37 +1169,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>2.98</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>2.792</v>
       </c>
     </row>
     <row r="28"/>
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>2.98</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>2.794</v>
       </c>
     </row>
     <row r="31">
@@ -1471,37 +1241,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>2.98</t>
         </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>2.792</v>
       </c>
     </row>
     <row r="32"/>
